--- a/Code/anote.xlsx
+++ b/Code/anote.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GitProject\LeetCodeNote\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72157AA2-6E99-4370-BB73-4A4075175852}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3C7D4E-A1A7-494B-82B7-04BF51C9F5D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B5B8D46C-8766-4311-8999-9C3721CBDA17}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
   <si>
     <t>X</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -166,6 +166,59 @@
   </si>
   <si>
     <t>异或</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1263,23 +1316,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28650521-4F92-4053-A614-5E850EFE644D}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25:P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="5.25" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="1" max="2" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="2.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="3.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1436,7 +1485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
         <v>19</v>
       </c>
@@ -1450,7 +1499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1464,7 +1513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="15" t="s">
         <v>19</v>
       </c>
@@ -1478,7 +1527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
@@ -1492,7 +1541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
@@ -1506,7 +1555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1520,7 +1569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C23" s="3" t="s">
         <v>6</v>
       </c>
@@ -1529,6 +1578,103 @@
       </c>
       <c r="E23" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Code/anote.xlsx
+++ b/Code/anote.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GitProject\LeetCodeNote\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GitProject\LeetCodeNote\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3C7D4E-A1A7-494B-82B7-04BF51C9F5D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC701BEC-7D38-4BA8-9F1A-FF84FDF07D95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B5B8D46C-8766-4311-8999-9C3721CBDA17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B5B8D46C-8766-4311-8999-9C3721CBDA17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1319,7 +1319,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25:P25"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1444,7 +1444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="L13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1635,46 +1635,46 @@
         <v>36</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Code/anote.xlsx
+++ b/Code/anote.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GitProject\LeetCodeNote\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC701BEC-7D38-4BA8-9F1A-FF84FDF07D95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46E803E-5626-4963-A7D8-D30446686E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B5B8D46C-8766-4311-8999-9C3721CBDA17}"/>
+    <workbookView xWindow="12810" yWindow="3030" windowWidth="25770" windowHeight="17580" xr2:uid="{B5B8D46C-8766-4311-8999-9C3721CBDA17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>X</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -44,22 +44,6 @@
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -157,15 +141,11 @@
     </r>
   </si>
   <si>
-    <t>十进制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>二进制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>异或</t>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -173,52 +153,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,14 +220,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="BatangChe"/>
       <family val="3"/>
@@ -298,7 +233,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,11 +243,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -405,18 +335,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -462,12 +389,8 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
@@ -1316,19 +1239,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28650521-4F92-4053-A614-5E850EFE644D}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="7.125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="2.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="3.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="3"/>
+    <col min="4" max="8" width="2.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="2.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="2.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1380,7 +1306,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -1414,7 +1340,7 @@
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>1</v>
@@ -1426,256 +1352,116 @@
         <v>2</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L10" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L11" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="L13" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Code/anote.xlsx
+++ b/Code/anote.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GitProject\LeetCodeNote\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GitProject\LeetCodeNote\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C2BFE2-0C39-4F07-A5F3-2E00A86C9CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CF89CD-C4BC-4D78-B68F-4EB02DCB05A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="30" windowWidth="21600" windowHeight="11385" xr2:uid="{B5B8D46C-8766-4311-8999-9C3721CBDA17}"/>
+    <workbookView xWindow="1515" yWindow="2505" windowWidth="25770" windowHeight="17580" xr2:uid="{B5B8D46C-8766-4311-8999-9C3721CBDA17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <r>
       <rPr>
@@ -103,31 +103,43 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>a</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -660,7 +672,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -735,47 +747,72 @@
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D11" s="3" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="G15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>9</v>
+      <c r="F16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D39" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.2">

--- a/Code/anote.xlsx
+++ b/Code/anote.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GitProject\LeetCodeNote\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CF89CD-C4BC-4D78-B68F-4EB02DCB05A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78899A43-B28C-4A4E-BF75-20387BA044A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="2505" windowWidth="25770" windowHeight="17580" xr2:uid="{B5B8D46C-8766-4311-8999-9C3721CBDA17}"/>
+    <workbookView xWindow="12630" yWindow="1035" windowWidth="25755" windowHeight="17565" xr2:uid="{B5B8D46C-8766-4311-8999-9C3721CBDA17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <r>
       <rPr>
@@ -89,58 +89,6 @@
       </rPr>
       <t>→</t>
     </r>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -669,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28650521-4F92-4053-A614-5E850EFE644D}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -747,91 +695,6 @@
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
